--- a/data_excel/815.xlsx
+++ b/data_excel/815.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_DATA\兩段問句\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ailab-master\ailab-master\ai-lab\data_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>樹上</t>
   </si>
@@ -109,15 +109,6 @@
   <si>
     <t>虛詞</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>後</t>
-  </si>
-  <si>
-    <t>after</t>
-  </si>
-  <si>
-    <t>時間點</t>
   </si>
 </sst>
 </file>
@@ -464,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -624,17 +615,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
